--- a/distancemoindrecarre/moindrecarreinverse.xlsx
+++ b/distancemoindrecarre/moindrecarreinverse.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625199A-92EF-42AD-B1A8-3D2088F94FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A44E8-6AD6-C14D-B2E8-D3DC0112749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -163,43 +165,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.8911063789982225E-2"/>
-                  <c:y val="-0.51263676040494943"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1568,14 +1534,12 @@
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" style="2"/>
-    <col min="3" max="3" width="10.90625" style="2"/>
-    <col min="4" max="8" width="10.81640625" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>878</v>
       </c>
@@ -1598,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>502</v>
       </c>
@@ -1615,7 +1579,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>728.94</v>
       </c>
@@ -1632,7 +1596,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>818.36</v>
       </c>
@@ -1644,7 +1608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>363.62</v>
       </c>
@@ -1656,7 +1620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>410</v>
       </c>
@@ -1669,7 +1633,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>162.71</v>
       </c>
@@ -1681,7 +1645,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>137.63999999999999</v>
       </c>
@@ -1693,7 +1657,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>126.26</v>
       </c>
@@ -1705,7 +1669,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>878</v>
       </c>
@@ -1717,24 +1681,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>888</v>
       </c>
       <c r="B12" s="2">
-        <f>C12^-1</f>
+        <f t="shared" ref="B12:B25" si="1">C12^-1</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C12" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>610</v>
       </c>
       <c r="B13" s="2">
-        <f>C13^-1</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="C13" s="2">
@@ -1742,144 +1706,144 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>466.89</v>
       </c>
       <c r="B14" s="2">
-        <f>C14^-1</f>
+        <f t="shared" si="1"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="C14" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>345.71</v>
       </c>
       <c r="B15" s="2">
-        <f>C15^-1</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C15" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>239.27</v>
       </c>
       <c r="B16" s="2">
-        <f>C16^-1</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>200</v>
       </c>
       <c r="B17" s="2">
-        <f>C17^-1</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="C17" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>470</v>
       </c>
       <c r="B18" s="2">
-        <f>C18^-1</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="C18" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>53.96</v>
       </c>
       <c r="B19" s="2">
-        <f>C19^-1</f>
+        <f t="shared" si="1"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="C19" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>405</v>
       </c>
       <c r="B20" s="2">
-        <f>C20^-1</f>
+        <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="C20" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>512</v>
       </c>
       <c r="B21" s="2">
-        <f>C21^-1</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>249.25</v>
       </c>
       <c r="B22" s="2">
-        <f>C22^-1</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C22" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>655.61</v>
       </c>
       <c r="B23" s="2">
-        <f>C23^-1</f>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C23" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>528.49</v>
       </c>
       <c r="B24" s="2">
-        <f>C24^-1</f>
+        <f t="shared" si="1"/>
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="C24" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>596.25</v>
       </c>
       <c r="B25" s="2">
-        <f>C25^-1</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C25" s="2">
